--- a/src/test/java/resources/TestData.xlsx
+++ b/src/test/java/resources/TestData.xlsx
@@ -8,15 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aparamasivam/HComTest/src/test/java/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBC7E7B2-8A47-3B44-9D7A-984B1C195E23}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77E767D0-9514-8A43-A7AE-47B5D1E13B55}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-49220" yWindow="-3140" windowWidth="23320" windowHeight="17540" activeTab="2" xr2:uid="{A3BB0696-CD0E-9540-8737-58494484EB4E}"/>
+    <workbookView xWindow="-49220" yWindow="-3140" windowWidth="23320" windowHeight="17540" xr2:uid="{A3BB0696-CD0E-9540-8737-58494484EB4E}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Manal Scenarios" sheetId="2" r:id="rId2"/>
-    <sheet name="Calculator" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
+    <sheet name="Calculator" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,68 +34,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="60">
   <si>
     <t>TestCaseName</t>
   </si>
   <si>
-    <t>Destination</t>
-  </si>
-  <si>
-    <t>Rooms</t>
-  </si>
-  <si>
-    <t>NoOfHotels</t>
-  </si>
-  <si>
-    <t>Fetch_Top_3</t>
-  </si>
-  <si>
-    <t>Bengaluru, India</t>
-  </si>
-  <si>
-    <t>CheckInDate</t>
-  </si>
-  <si>
-    <t>CheckOutDate</t>
-  </si>
-  <si>
-    <t>1 room, 1 adult</t>
-  </si>
-  <si>
-    <t>"15/12/2019"</t>
-  </si>
-  <si>
-    <t>"16/12/2019"</t>
-  </si>
-  <si>
-    <t>"3"</t>
-  </si>
-  <si>
-    <t>Fetch_Top_5</t>
-  </si>
-  <si>
-    <t>"5"</t>
-  </si>
-  <si>
-    <t>Key</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Test Case</t>
-  </si>
-  <si>
-    <t>Functional Tests</t>
-  </si>
-  <si>
-    <t>Sample</t>
-  </si>
-  <si>
-    <t>1+1=2</t>
-  </si>
-  <si>
     <t>Addition of two integer numbers</t>
   </si>
   <si>
@@ -108,12 +48,6 @@
     <t>Addition of one positive and one negative number</t>
   </si>
   <si>
-    <t>"-1-1=-2"</t>
-  </si>
-  <si>
-    <t>"-1+2=1"</t>
-  </si>
-  <si>
     <t>Subtraction of two integer numbers</t>
   </si>
   <si>
@@ -135,18 +69,12 @@
     <t>Division of a number by zero</t>
   </si>
   <si>
-    <t>Error</t>
-  </si>
-  <si>
     <t>Division of a number by a negative number</t>
   </si>
   <si>
     <t>Division of zero by a number</t>
   </si>
   <si>
-    <t>Check if  works as expected</t>
-  </si>
-  <si>
     <t>Check if BODMAS/BIDMAS works as expected</t>
   </si>
   <si>
@@ -162,22 +90,10 @@
     <t>ExpectedResult</t>
   </si>
   <si>
-    <t>ActualResult</t>
-  </si>
-  <si>
     <t>TC1</t>
   </si>
   <si>
     <t>addition</t>
-  </si>
-  <si>
-    <t>Negative tests</t>
-  </si>
-  <si>
-    <t>Boundary values</t>
-  </si>
-  <si>
-    <t>some are aboe like Errors</t>
   </si>
   <si>
     <t>TC2</t>
@@ -304,27 +220,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF2A00FF"/>
-      <name val="Menlo"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -353,11 +255,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -672,222 +571,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{852D2C20-9A33-A640-9CC5-18B1984A618E}">
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.83203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC647DD9-D817-5448-BF73-43E6B1EF0A1D}">
-  <dimension ref="A1:D18"/>
-  <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="45.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
-        <v>45</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D22ACE72-9B72-A242-8ED7-C6F3A2E45E55}">
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -902,28 +590,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="B1" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="E1" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="F1" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="G1" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="H1" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -931,25 +619,25 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="F2" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="G2" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="H2" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -957,25 +645,25 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>59</v>
+        <v>31</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="F3" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="G3" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="H3" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -983,25 +671,25 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="F4" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="H4" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -1009,25 +697,25 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="E5" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="F5" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="G5" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="H5" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -1035,25 +723,25 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>59</v>
+        <v>5</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="E6" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="F6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" t="s">
         <v>51</v>
-      </c>
-      <c r="G6" t="s">
-        <v>57</v>
-      </c>
-      <c r="H6" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -1061,25 +749,25 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>59</v>
+        <v>6</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="E7" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="F7" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="G7" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="H7" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -1087,25 +775,25 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="E8" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="F8" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="G8" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="H8" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -1113,25 +801,25 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>70</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>59</v>
+        <v>43</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="F9" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="G9" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="H9" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -1139,25 +827,25 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="E10" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="F10" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="G10" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="H10" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -1165,25 +853,25 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="E11" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="G11" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="H11" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -1191,25 +879,25 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>69</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>59</v>
+        <v>42</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="F12" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="G12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" t="s">
         <v>57</v>
-      </c>
-      <c r="H12" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -1217,25 +905,25 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="E13" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="F13" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="G13" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="H13" t="s">
-        <v>85</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -1243,123 +931,23 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="F14" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="G14" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="H14" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48DC2314-AEC7-0040-82F2-B8B62DC92ACA}">
-  <dimension ref="A1:I3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="3" max="3" width="45.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="6.83203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G3" t="s">
-        <v>57</v>
-      </c>
-      <c r="H3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>